--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\Reto_Michael_Garzon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87ED030-7D1C-429F-A97D-E6A42DE66814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5AB1E-5642-4393-BCEE-1208F519E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\Reto_Michael_Garzon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\Reto_Automatizacion_MichaelGarzon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5AB1E-5642-4393-BCEE-1208F519E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEAFC7-2812-418E-82B8-18D7C5185176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Start Date</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Attendee List</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
     <t>07/14/2022</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>08/20/2022</t>
   </si>
   <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>Adam Steward</t>
-  </si>
-  <si>
     <t>HQ-02</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>End_Date</t>
   </si>
   <si>
-    <t>Meeting_test</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -87,17 +72,35 @@
     <t>Bussiness_Name</t>
   </si>
   <si>
-    <t>Criptocoins</t>
+    <t>Opt_Validate</t>
+  </si>
+  <si>
+    <t>Acme Corp. » Unidad_2</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Unit_3</t>
+  </si>
+  <si>
+    <t>=D2+E2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,31 +416,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -446,63 +449,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>12345</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -511,10 +508,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -523,10 +519,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -535,10 +530,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -547,22 +541,22 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -571,10 +565,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -583,10 +576,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -595,10 +587,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -607,10 +598,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -619,10 +609,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -631,10 +620,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -643,10 +631,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -655,10 +642,40 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
